--- a/S019-ARAMCO ID LOG.xlsx
+++ b/S019-ARAMCO ID LOG.xlsx
@@ -651,13 +651,13 @@
     <t>BLOOD TYPE</t>
   </si>
   <si>
-    <t>PASSPORT NUMBER</t>
-  </si>
-  <si>
     <t>PP-ISSUE DATE</t>
   </si>
   <si>
     <t>PP-EXPIRY DATE</t>
+  </si>
+  <si>
+    <t>PASSPORT NO</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1254,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1272,7 @@
     <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -1320,16 +1320,16 @@
         <v>5</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>207</v>
